--- a/Parcial 1/Ejercicios/04 ejercicio tipo reto soluciones.xlsx
+++ b/Parcial 1/Ejercicios/04 ejercicio tipo reto soluciones.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hca\Desktop\hcp-repo\Parcial 1\Ejercicios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bmond\Documents\ITAM\Semestre 10\Herramientas Computacionales para Produccion Empresarial\hcp-repo\Parcial 1\Ejercicios\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bisiesto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -141,7 +141,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -173,7 +173,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 1"/>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -235,7 +241,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvPr id="3" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -312,7 +324,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="AutoShape 3"/>
+        <xdr:cNvPr id="4" name="AutoShape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -389,7 +407,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="AutoShape 4"/>
+        <xdr:cNvPr id="5" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -472,7 +496,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Rectangle 5"/>
+        <xdr:cNvPr id="6" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -534,7 +564,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Rectangle 6"/>
+        <xdr:cNvPr id="7" name="Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -596,7 +632,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Rectangle 7"/>
+        <xdr:cNvPr id="8" name="Rectangle 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -658,7 +700,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Rectangle 8"/>
+        <xdr:cNvPr id="9" name="Rectangle 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -720,7 +768,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Line 9"/>
+        <xdr:cNvPr id="10" name="Line 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -768,7 +822,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Line 10"/>
+        <xdr:cNvPr id="11" name="Line 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -816,7 +876,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Line 11"/>
+        <xdr:cNvPr id="12" name="Line 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -864,7 +930,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Line 12"/>
+        <xdr:cNvPr id="13" name="Line 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -912,7 +984,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Line 13"/>
+        <xdr:cNvPr id="14" name="Line 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -960,7 +1038,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Line 14"/>
+        <xdr:cNvPr id="15" name="Line 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -1008,7 +1092,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="Line 15"/>
+        <xdr:cNvPr id="16" name="Line 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -1056,7 +1146,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Line 16"/>
+        <xdr:cNvPr id="17" name="Line 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -1104,7 +1200,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="Line 17"/>
+        <xdr:cNvPr id="18" name="Line 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -1152,7 +1254,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="Line 18"/>
+        <xdr:cNvPr id="19" name="Line 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -1200,7 +1308,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="Line 19"/>
+        <xdr:cNvPr id="20" name="Line 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -1248,7 +1362,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="Line 20"/>
+        <xdr:cNvPr id="21" name="Line 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -1296,7 +1416,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="Line 21"/>
+        <xdr:cNvPr id="22" name="Line 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -1344,7 +1470,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="Text Box 22"/>
+        <xdr:cNvPr id="23" name="Text Box 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1406,7 +1538,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="Line 23"/>
+        <xdr:cNvPr id="24" name="Line 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -1449,7 +1587,13 @@
     <xdr:ext cx="210827" cy="165943"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="Text Box 24"/>
+        <xdr:cNvPr id="25" name="Text Box 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1504,7 +1648,13 @@
     <xdr:ext cx="139654" cy="165943"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="Text Box 25"/>
+        <xdr:cNvPr id="26" name="Text Box 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1559,7 +1709,13 @@
     <xdr:ext cx="139654" cy="165943"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="Text Box 26"/>
+        <xdr:cNvPr id="27" name="Text Box 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1614,7 +1770,13 @@
     <xdr:ext cx="139654" cy="165943"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="Text Box 27"/>
+        <xdr:cNvPr id="28" name="Text Box 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1669,7 +1831,13 @@
     <xdr:ext cx="210827" cy="165943"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="Text Box 28"/>
+        <xdr:cNvPr id="29" name="Text Box 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1724,7 +1892,13 @@
     <xdr:ext cx="210827" cy="165943"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="Text Box 29"/>
+        <xdr:cNvPr id="30" name="Text Box 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1784,7 +1958,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="Text Box 30"/>
+        <xdr:cNvPr id="31" name="Text Box 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1846,7 +2026,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="Line 31"/>
+        <xdr:cNvPr id="32" name="Line 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -2144,19 +2330,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="2" width="11.3984375" style="1"/>
+    <col min="3" max="3" width="12.46484375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="11.3984375" style="1"/>
+    <col min="7" max="7" width="12.46484375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.3984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="25.15" x14ac:dyDescent="0.7">
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2165,7 +2355,7 @@
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
     </row>
-    <row r="3" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="20.65" x14ac:dyDescent="0.6">
       <c r="A3" s="2"/>
       <c r="B3" s="6" t="s">
         <v>1</v>
@@ -2178,7 +2368,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="20.65" x14ac:dyDescent="0.6">
       <c r="A4" s="2"/>
       <c r="B4" s="6" t="s">
         <v>2</v>
@@ -2191,7 +2381,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -2201,12 +2391,12 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F11" s="3">
         <v>1956</v>
       </c>
@@ -2232,9 +2422,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2352,25 +2545,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA3844A9-FB57-436C-8604-977A26C4B10E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF2F2707-7839-48F7-A055-734B520D22C2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2392,9 +2575,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF2F2707-7839-48F7-A055-734B520D22C2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA3844A9-FB57-436C-8604-977A26C4B10E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>